--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -164,76 +164,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_branch.xlsx
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352478</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL2">
-        <v>-4.009072920879891E-12</v>
+        <v>7.638633567061702E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999792</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.999999999986</v>
       </c>
       <c r="AO2">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1250,22 +1250,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL3">
-        <v>-1.430127532198066E-11</v>
+        <v>5.690905890014757E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO3">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1381,22 +1381,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL4">
-        <v>-1.430851892683482E-11</v>
+        <v>5.697908348567778E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO4">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1512,22 +1512,22 @@
         <v>0.9526279648057698</v>
       </c>
       <c r="AL5">
-        <v>-1.430127532198066E-11</v>
+        <v>5.690905890014757E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO5">
-        <v>-1.430851892683482E-11</v>
+        <v>5.697908348567778E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999534</v>
       </c>
     </row>
   </sheetData>
@@ -1787,22 +1787,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>2.827172423656917E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159208</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1918,22 +1918,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041745</v>
+        <v>2.583437767494017E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2049,22 +2049,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041745</v>
+        <v>2.594288644260149E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2180,22 +2180,22 @@
         <v>0.9259084304691404</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041745</v>
+        <v>2.583437767494017E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041745</v>
+        <v>2.594288644260149E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -2455,22 +2455,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>2.827172423656917E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159208</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2586,22 +2586,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041745</v>
+        <v>2.583437767494017E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2717,22 +2717,22 @@
         <v>0.9229411060011544</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041745</v>
+        <v>2.594288644260149E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943075</v>
+        <v>2.742880356183955E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204023</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286497</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2848,22 +2848,22 @@
         <v>0.9259084304691404</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041745</v>
+        <v>2.583437767494017E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041745</v>
+        <v>2.594288644260149E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.041078218862</v>
+        <v>-144.2086535813754</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -3123,22 +3123,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL2">
-        <v>3.076307043908082E-11</v>
+        <v>7.262848073074201E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3254,22 +3254,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL3">
-        <v>1.923662769629079E-10</v>
+        <v>3.466335396474576E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO3">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3385,22 +3385,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL4">
-        <v>1.923708620085643E-10</v>
+        <v>3.535111081319793E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO4">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3516,22 +3516,22 @@
         <v>0.8660254037890389</v>
       </c>
       <c r="AL5">
-        <v>1.923662769629079E-10</v>
+        <v>3.466335396474576E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO5">
-        <v>1.923708620085643E-10</v>
+        <v>3.535111081319793E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
     </row>
   </sheetData>
@@ -3791,22 +3791,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL2">
-        <v>3.076307043908082E-11</v>
+        <v>7.262848073074201E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3922,22 +3922,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL3">
-        <v>1.923662769629079E-10</v>
+        <v>3.466335396474576E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO3">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4053,22 +4053,22 @@
         <v>0.8660254037883343</v>
       </c>
       <c r="AL4">
-        <v>1.923708620085643E-10</v>
+        <v>3.535111081319793E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO4">
-        <v>1.723228433675767E-10</v>
+        <v>4.713081827546284E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994767</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4184,22 +4184,22 @@
         <v>0.8660254037890389</v>
       </c>
       <c r="AL5">
-        <v>1.923662769629079E-10</v>
+        <v>3.466335396474576E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO5">
-        <v>1.923708620085643E-10</v>
+        <v>3.535111081319793E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994163</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
     </row>
   </sheetData>
@@ -4459,22 +4459,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536514</v>
+        <v>2.858780624496783E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4590,22 +4590,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875883</v>
+        <v>1.647130854887827E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4721,22 +4721,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875884</v>
+        <v>1.637513232136111E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4852,22 +4852,22 @@
         <v>0.8618501377741073</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875883</v>
+        <v>1.647130854887827E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875884</v>
+        <v>1.637513232136111E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
     </row>
   </sheetData>
@@ -5127,22 +5127,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536514</v>
+        <v>2.858780624496783E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5258,22 +5258,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875883</v>
+        <v>1.647130854887827E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5389,22 +5389,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875884</v>
+        <v>1.637513232136111E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.030989447470499E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -5520,22 +5520,22 @@
         <v>0.8618501377741073</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875883</v>
+        <v>1.647130854887827E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339256</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875884</v>
+        <v>1.637513232136111E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880948</v>
       </c>
     </row>
   </sheetData>
@@ -5795,22 +5795,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL2">
-        <v>1.901269826158502</v>
+        <v>1.901269824592733</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0987301749898</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5926,22 +5926,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL3">
-        <v>-9.158832618363597</v>
+        <v>-9.158832618420709</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6057,22 +6057,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL4">
-        <v>-9.158832618363595</v>
+        <v>-9.158832618420707</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6188,22 +6188,22 @@
         <v>0.8062769315723293</v>
       </c>
       <c r="AL5">
-        <v>-9.158832618363597</v>
+        <v>-9.158832618420709</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-9.158832618363595</v>
+        <v>-9.158832618420707</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6463,22 +6463,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL2">
-        <v>1.901269826158502</v>
+        <v>1.901269824592733</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0987301749898</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6594,22 +6594,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL3">
-        <v>-9.158832618363597</v>
+        <v>-9.158832618420709</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6725,22 +6725,22 @@
         <v>0.7585622007379993</v>
       </c>
       <c r="AL4">
-        <v>-9.158832618363595</v>
+        <v>-9.158832618420707</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-12.56153100582878</v>
+        <v>-12.56153100591622</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>167.4384689941965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6856,22 +6856,22 @@
         <v>0.8062769315723293</v>
       </c>
       <c r="AL5">
-        <v>-9.158832618363597</v>
+        <v>-9.158832618420709</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-9.158832618363595</v>
+        <v>-9.158832618420707</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>170.8411673816617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7131,22 +7131,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL2">
-        <v>21.37651986108362</v>
+        <v>-2.81224923944472</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396028</v>
+        <v>-131.7250436942232</v>
       </c>
       <c r="AN2">
-        <v>148.8263147219714</v>
+        <v>114.4097119627763</v>
       </c>
       <c r="AO2">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ2">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7262,22 +7262,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL3">
-        <v>19.20716037741579</v>
+        <v>-5.142964115527383</v>
       </c>
       <c r="AM3">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN3">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO3">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ3">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7393,22 +7393,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL4">
-        <v>19.2071603774158</v>
+        <v>-5.142964115527386</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN4">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO4">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ4">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -7524,22 +7524,22 @@
         <v>0.9212706670340196</v>
       </c>
       <c r="AL5">
-        <v>19.20716037741579</v>
+        <v>-5.142964115527383</v>
       </c>
       <c r="AM5">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN5">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO5">
-        <v>19.2071603774158</v>
+        <v>-5.142964115527386</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AQ5">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
     </row>
   </sheetData>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8077,22 +8077,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL2">
-        <v>21.37651986108362</v>
+        <v>-2.81224923944472</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396028</v>
+        <v>-131.7250436942232</v>
       </c>
       <c r="AN2">
-        <v>148.8263147219714</v>
+        <v>114.4097119627763</v>
       </c>
       <c r="AO2">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ2">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8208,22 +8208,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL3">
-        <v>19.20716037741579</v>
+        <v>-5.142964115527383</v>
       </c>
       <c r="AM3">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN3">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO3">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ3">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8339,22 +8339,22 @@
         <v>0.9270360094836517</v>
       </c>
       <c r="AL4">
-        <v>19.2071603774158</v>
+        <v>-5.142964115527386</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN4">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO4">
-        <v>20.0477067217329</v>
+        <v>-4.859260511507836</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390014049</v>
+        <v>-124.7638439932575</v>
       </c>
       <c r="AQ4">
-        <v>151.2487257508933</v>
+        <v>110.5664631056093</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -8470,22 +8470,22 @@
         <v>0.9212706670340196</v>
       </c>
       <c r="AL5">
-        <v>19.20716037741579</v>
+        <v>-5.142964115527383</v>
       </c>
       <c r="AM5">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AN5">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
       <c r="AO5">
-        <v>19.2071603774158</v>
+        <v>-5.142964115527386</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568572217</v>
+        <v>-121.7413956737923</v>
       </c>
       <c r="AQ5">
-        <v>152.6164013912024</v>
+        <v>108.3167477358928</v>
       </c>
     </row>
   </sheetData>
@@ -8745,22 +8745,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL2">
-        <v>1.955875720579085</v>
+        <v>1.955875720244651</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0441242809309</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8876,22 +8876,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL3">
-        <v>-6.142526072165142</v>
+        <v>-6.142526072402042</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9007,22 +9007,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL4">
-        <v>-6.142526072165123</v>
+        <v>-6.14252607240206</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9138,22 +9138,22 @@
         <v>0.7807569542043064</v>
       </c>
       <c r="AL5">
-        <v>-6.142526072165142</v>
+        <v>-6.142526072402042</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-6.142526072165123</v>
+        <v>-6.14252607240206</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9413,22 +9413,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL2">
-        <v>1.955875720579085</v>
+        <v>1.955875720244651</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0441242809309</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9544,22 +9544,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL3">
-        <v>-6.142526072165142</v>
+        <v>-6.142526072402042</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9675,22 +9675,22 @@
         <v>0.7604463063235444</v>
       </c>
       <c r="AL4">
-        <v>-6.142526072165123</v>
+        <v>-6.14252607240206</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.980984779835504</v>
+        <v>-8.980984780063915</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.0190152197314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9806,22 +9806,22 @@
         <v>0.7807569542043064</v>
       </c>
       <c r="AL5">
-        <v>-6.142526072165142</v>
+        <v>-6.142526072402042</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>-6.142526072165123</v>
+        <v>-6.14252607240206</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>173.8574739273857</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10081,22 +10081,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL2">
-        <v>21.04638680025845</v>
+        <v>-2.938037445647598</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786953</v>
+        <v>-132.1698997456635</v>
       </c>
       <c r="AN2">
-        <v>148.8124200026778</v>
+        <v>114.269257169027</v>
       </c>
       <c r="AO2">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ2">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10212,22 +10212,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL3">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587983</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345652829</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN3">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO3">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ3">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10343,22 +10343,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL4">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587985</v>
       </c>
       <c r="AM4">
-        <v>-96.0932934565283</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN4">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO4">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ4">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -10474,22 +10474,22 @@
         <v>0.8523614955384026</v>
       </c>
       <c r="AL5">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587983</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345652829</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN5">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO5">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587985</v>
       </c>
       <c r="AP5">
-        <v>-96.0932934565283</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AQ5">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
     </row>
   </sheetData>
@@ -10749,22 +10749,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL2">
-        <v>21.04638680025845</v>
+        <v>-2.938037445647598</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786953</v>
+        <v>-132.1698997456635</v>
       </c>
       <c r="AN2">
-        <v>148.8124200026778</v>
+        <v>114.269257169027</v>
       </c>
       <c r="AO2">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ2">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10880,22 +10880,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL3">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587983</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345652829</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN3">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO3">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ3">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11011,22 +11011,22 @@
         <v>0.8520668705855894</v>
       </c>
       <c r="AL4">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587985</v>
       </c>
       <c r="AM4">
-        <v>-96.0932934565283</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN4">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO4">
-        <v>19.79019327968254</v>
+        <v>-6.066447988838419</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507042335</v>
+        <v>-119.0758773139459</v>
       </c>
       <c r="AQ4">
-        <v>152.8016426976381</v>
+        <v>109.7064023375707</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11142,22 +11142,22 @@
         <v>0.8523614955384026</v>
       </c>
       <c r="AL5">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587983</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345652829</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AN5">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
       <c r="AO5">
-        <v>18.94338221820284</v>
+        <v>-5.820733911587985</v>
       </c>
       <c r="AP5">
-        <v>-96.0932934565283</v>
+        <v>-114.1676767600799</v>
       </c>
       <c r="AQ5">
-        <v>154.8099639872519</v>
+        <v>107.2446064179655</v>
       </c>
     </row>
   </sheetData>
@@ -11417,22 +11417,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL2">
-        <v>81.01279302457171</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999582</v>
+        <v>-98.98720697523714</v>
       </c>
       <c r="AN2">
-        <v>99.10724870474976</v>
+        <v>99.10724870417667</v>
       </c>
       <c r="AO2">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ2">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11548,22 +11548,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL3">
-        <v>35.23345800438612</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958363</v>
       </c>
       <c r="AN3">
-        <v>121.8536036145803</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO3">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ3">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11679,22 +11679,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL4">
-        <v>35.2334580043861</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958364</v>
       </c>
       <c r="AN4">
-        <v>121.8536036145802</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO4">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ4">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11810,22 +11810,22 @@
         <v>0.9000545224601514</v>
       </c>
       <c r="AL5">
-        <v>35.23345800438612</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958363</v>
       </c>
       <c r="AN5">
-        <v>121.8536036145803</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO5">
-        <v>35.2334580043861</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958364</v>
       </c>
       <c r="AQ5">
-        <v>121.8536036145802</v>
+        <v>121.8536036143959</v>
       </c>
     </row>
   </sheetData>
@@ -12085,22 +12085,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL2">
-        <v>81.01279302457171</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999582</v>
+        <v>-98.98720697523714</v>
       </c>
       <c r="AN2">
-        <v>99.10724870474976</v>
+        <v>99.10724870417667</v>
       </c>
       <c r="AO2">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ2">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12216,22 +12216,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL3">
-        <v>35.23345800438612</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958363</v>
       </c>
       <c r="AN3">
-        <v>121.8536036145803</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO3">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ3">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12347,22 +12347,22 @@
         <v>0.8536436911147183</v>
       </c>
       <c r="AL4">
-        <v>35.2334580043861</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958364</v>
       </c>
       <c r="AN4">
-        <v>121.8536036145802</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO4">
-        <v>41.56601328844689</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-138.4339867118868</v>
       </c>
       <c r="AQ4">
-        <v>116.1703166090955</v>
+        <v>116.1703166088284</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -12478,22 +12478,22 @@
         <v>0.9000545224601514</v>
       </c>
       <c r="AL5">
-        <v>35.23345800438612</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958363</v>
       </c>
       <c r="AN5">
-        <v>121.8536036145803</v>
+        <v>121.8536036143959</v>
       </c>
       <c r="AO5">
-        <v>35.2334580043861</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999625</v>
+        <v>-144.7665419958364</v>
       </c>
       <c r="AQ5">
-        <v>121.8536036145802</v>
+        <v>121.8536036143959</v>
       </c>
     </row>
   </sheetData>
@@ -12753,22 +12753,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL2">
-        <v>29.15655502162155</v>
+        <v>-7.854367439491427</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.0199518024491</v>
       </c>
       <c r="AN2">
-        <v>141.2520184563645</v>
+        <v>115.8452925405398</v>
       </c>
       <c r="AO2">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ2">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12884,22 +12884,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL3">
-        <v>30.6623176874836</v>
+        <v>-1.6028539473995</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN3">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO3">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ3">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13015,22 +13015,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL4">
-        <v>30.66231768748359</v>
+        <v>-1.602853947399505</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN4">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO4">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ4">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13146,22 +13146,22 @@
         <v>1.007203956173985</v>
       </c>
       <c r="AL5">
-        <v>30.6623176874836</v>
+        <v>-1.6028539473995</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN5">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO5">
-        <v>30.66231768748359</v>
+        <v>-1.602853947399505</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AQ5">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
     </row>
   </sheetData>
@@ -13421,22 +13421,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL2">
-        <v>29.15655502162155</v>
+        <v>-7.854367439491427</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.0199518024491</v>
       </c>
       <c r="AN2">
-        <v>141.2520184563645</v>
+        <v>115.8452925405398</v>
       </c>
       <c r="AO2">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ2">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13552,22 +13552,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL3">
-        <v>30.6623176874836</v>
+        <v>-1.6028539473995</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN3">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO3">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ3">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13683,22 +13683,22 @@
         <v>1.016780042240087</v>
       </c>
       <c r="AL4">
-        <v>30.66231768748359</v>
+        <v>-1.602853947399505</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN4">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO4">
-        <v>30.18467731504754</v>
+        <v>-3.682813338895355</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.2694998614171</v>
       </c>
       <c r="AQ4">
-        <v>140.9309510165867</v>
+        <v>119.4001930396979</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13814,22 +13814,22 @@
         <v>1.007203956173985</v>
       </c>
       <c r="AL5">
-        <v>30.6623176874836</v>
+        <v>-1.6028539473995</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AN5">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
       <c r="AO5">
-        <v>30.66231768748359</v>
+        <v>-1.602853947399505</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999632</v>
+        <v>-128.7340660825187</v>
       </c>
       <c r="AQ5">
-        <v>140.7047633326422</v>
+        <v>121.207790507777</v>
       </c>
     </row>
   </sheetData>
@@ -14089,22 +14089,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL2">
-        <v>81.17491668662113</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999578</v>
+        <v>-98.82508331282827</v>
       </c>
       <c r="AN2">
-        <v>98.94373642299013</v>
+        <v>98.94373642259907</v>
       </c>
       <c r="AO2">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ2">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -14220,22 +14220,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL3">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN3">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO3">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ3">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -14351,22 +14351,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL4">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN4">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO4">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ4">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -14482,22 +14482,22 @@
         <v>0.8795785593514657</v>
       </c>
       <c r="AL5">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN5">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO5">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AQ5">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
     </row>
   </sheetData>
@@ -14613,10 +14613,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14666,10 +14666,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14719,10 +14719,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -14772,10 +14772,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -15035,22 +15035,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL2">
-        <v>81.17491668662113</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999578</v>
+        <v>-98.82508331282827</v>
       </c>
       <c r="AN2">
-        <v>98.94373642299013</v>
+        <v>98.94373642259907</v>
       </c>
       <c r="AO2">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ2">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15166,22 +15166,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL3">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN3">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO3">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ3">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15297,22 +15297,22 @@
         <v>0.8636625940136907</v>
       </c>
       <c r="AL4">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN4">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO4">
-        <v>30.37919592902007</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999619</v>
+        <v>-149.6208040707946</v>
       </c>
       <c r="AQ4">
-        <v>123.0882889740625</v>
+        <v>123.088288974044</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -15428,22 +15428,22 @@
         <v>0.8795785593514657</v>
       </c>
       <c r="AL5">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AN5">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
       <c r="AO5">
-        <v>29.7127042835145</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999608</v>
+        <v>-150.2872957163935</v>
       </c>
       <c r="AQ5">
-        <v>128.8070926851616</v>
+        <v>128.8070926851581</v>
       </c>
     </row>
   </sheetData>
@@ -15703,22 +15703,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL2">
-        <v>29.18500206515242</v>
+        <v>-8.137658662926755</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999642</v>
+        <v>-117.901327899101</v>
       </c>
       <c r="AN2">
-        <v>140.9086422845006</v>
+        <v>115.6595151861734</v>
       </c>
       <c r="AO2">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ2">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15834,22 +15834,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL3">
-        <v>31.33833484413732</v>
+        <v>6.057477003351935</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999621</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN3">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO3">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ3">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15965,22 +15965,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL4">
-        <v>31.33833484413731</v>
+        <v>6.057477003351933</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999622</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN4">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO4">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ4">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16096,22 +16096,22 @@
         <v>0.9091343131749756</v>
       </c>
       <c r="AL5">
-        <v>31.33833484413732</v>
+        <v>6.057477003351935</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999621</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN5">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO5">
-        <v>31.33833484413731</v>
+        <v>6.057477003351933</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999622</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AQ5">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
     </row>
   </sheetData>
@@ -16371,22 +16371,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL2">
-        <v>29.18500206515242</v>
+        <v>-8.137658662926755</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999642</v>
+        <v>-117.901327899101</v>
       </c>
       <c r="AN2">
-        <v>140.9086422845006</v>
+        <v>115.6595151861734</v>
       </c>
       <c r="AO2">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ2">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -16502,22 +16502,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL3">
-        <v>31.33833484413732</v>
+        <v>6.057477003351935</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999621</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN3">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO3">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ3">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -16633,22 +16633,22 @@
         <v>0.9187000811234594</v>
       </c>
       <c r="AL4">
-        <v>31.33833484413731</v>
+        <v>6.057477003351933</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999622</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN4">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO4">
-        <v>30.70548526244763</v>
+        <v>1.78222978367294</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999629</v>
+        <v>-130.2614053416785</v>
       </c>
       <c r="AQ4">
-        <v>141.3328683155829</v>
+        <v>120.9563150068416</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16764,22 +16764,22 @@
         <v>0.9091343131749756</v>
       </c>
       <c r="AL5">
-        <v>31.33833484413732</v>
+        <v>6.057477003351935</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999621</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AN5">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
       <c r="AO5">
-        <v>31.33833484413731</v>
+        <v>6.057477003351933</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999622</v>
+        <v>-134.9766456477333</v>
       </c>
       <c r="AQ5">
-        <v>141.3743755610145</v>
+        <v>123.6110711742924</v>
       </c>
     </row>
   </sheetData>
@@ -16895,10 +16895,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -16948,10 +16948,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17001,10 +17001,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17054,10 +17054,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -17173,10 +17173,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749283</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17226,10 +17226,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17279,10 +17279,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17332,10 +17332,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17451,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749281</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17504,10 +17504,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17557,10 +17557,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17610,10 +17610,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17729,10 +17729,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17782,10 +17782,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17835,10 +17835,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17888,10 +17888,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18007,10 +18007,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -18060,10 +18060,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18113,10 +18113,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -18166,10 +18166,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18429,22 +18429,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL2">
-        <v>-4.009072920879891E-12</v>
+        <v>7.638633567061702E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999792</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.999999999986</v>
       </c>
       <c r="AO2">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18560,22 +18560,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL3">
-        <v>-1.430127532198066E-11</v>
+        <v>5.690905890014757E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO3">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18691,22 +18691,22 @@
         <v>0.952627964804757</v>
       </c>
       <c r="AL4">
-        <v>-1.430851892683482E-11</v>
+        <v>5.697908348567778E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO4">
-        <v>-1.248586019822541E-11</v>
+        <v>6.494615329504875E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.999999999954</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999594</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18822,22 +18822,22 @@
         <v>0.9526279648057698</v>
       </c>
       <c r="AL5">
-        <v>-1.430127532198066E-11</v>
+        <v>5.690905890014757E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999534</v>
       </c>
       <c r="AO5">
-        <v>-1.430851892683482E-11</v>
+        <v>5.697908348567778E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999486</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999534</v>
       </c>
     </row>
   </sheetData>
